--- a/src/main/resources/template/excel/export/CsrserviceCashFlow.xlsx
+++ b/src/main/resources/template/excel/export/CsrserviceCashFlow.xlsx
@@ -94,9 +94,6 @@
     <t>${obj.orderNo}</t>
   </si>
   <si>
-    <t>${obj.saleTime}</t>
-  </si>
-  <si>
     <t>${obj.saleAmount}</t>
   </si>
   <si>
@@ -135,14 +132,18 @@
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>${obj.time}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -236,11 +237,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,7 +549,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -562,24 +563,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -613,23 +614,23 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/CsrserviceCashFlow.xlsx
+++ b/src/main/resources/template/excel/export/CsrserviceCashFlow.xlsx
@@ -143,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -238,10 +238,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -563,17 +563,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -614,7 +614,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">

--- a/src/main/resources/template/excel/export/CsrserviceCashFlow.xlsx
+++ b/src/main/resources/template/excel/export/CsrserviceCashFlow.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,11 +39,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I3")</t>
+          <t>jx:area(lastCell="J3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1">
+    <comment ref="A3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="I3")</t>
+jx:each(items="reportList" var="obj" lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>单据编号</t>
   </si>
@@ -136,6 +136,14 @@
     <t>${obj.time}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.businessTypeStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +151,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -238,10 +246,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,36 +554,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -595,16 +604,19 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -614,7 +626,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -624,18 +636,21 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
